--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Fzd2</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H2">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J2">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>10.0431001646814</v>
+        <v>0.1278803333333333</v>
       </c>
       <c r="N2">
-        <v>10.0431001646814</v>
+        <v>0.383641</v>
       </c>
       <c r="O2">
-        <v>0.8476399449834829</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="P2">
-        <v>0.8476399449834829</v>
+        <v>0.009974564977605908</v>
       </c>
       <c r="Q2">
-        <v>85.21799005449286</v>
+        <v>1.170995011866445</v>
       </c>
       <c r="R2">
-        <v>85.21799005449286</v>
+        <v>10.538955106798</v>
       </c>
       <c r="S2">
-        <v>0.8203304014729192</v>
+        <v>0.009670036160121756</v>
       </c>
       <c r="T2">
-        <v>0.8203304014729192</v>
+        <v>0.009670036160121754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.48522753503736</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H3">
-        <v>8.48522753503736</v>
+        <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.9677816699505639</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J3">
-        <v>0.9677816699505639</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.80520904268742</v>
+        <v>10.61985133333333</v>
       </c>
       <c r="N3">
-        <v>1.80520904268742</v>
+        <v>31.859554</v>
       </c>
       <c r="O3">
-        <v>0.1523600550165171</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="P3">
-        <v>0.1523600550165171</v>
+        <v>0.8283400145723324</v>
       </c>
       <c r="Q3">
-        <v>15.31760947550973</v>
+        <v>97.24554678537912</v>
       </c>
       <c r="R3">
-        <v>15.31760947550973</v>
+        <v>875.2099210684121</v>
       </c>
       <c r="S3">
-        <v>0.1474512684776448</v>
+        <v>0.8030503497419507</v>
       </c>
       <c r="T3">
-        <v>0.1474512684776448</v>
+        <v>0.8030503497419507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.28248092494081</v>
+        <v>9.156959333333335</v>
       </c>
       <c r="H4">
-        <v>0.28248092494081</v>
+        <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.03221833004943613</v>
+        <v>0.969469463764299</v>
       </c>
       <c r="J4">
-        <v>0.03221833004943613</v>
+        <v>0.9694694637642989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.0431001646814</v>
+        <v>2.072911</v>
       </c>
       <c r="N4">
-        <v>10.0431001646814</v>
+        <v>6.218733</v>
       </c>
       <c r="O4">
-        <v>0.8476399449834829</v>
+        <v>0.1616854204500617</v>
       </c>
       <c r="P4">
-        <v>0.8476399449834829</v>
+        <v>0.1616854204500617</v>
       </c>
       <c r="Q4">
-        <v>2.836984223792403</v>
+        <v>18.98156172861934</v>
       </c>
       <c r="R4">
-        <v>2.836984223792403</v>
+        <v>170.834055557574</v>
       </c>
       <c r="S4">
-        <v>0.02730954351056373</v>
+        <v>0.1567490778622265</v>
       </c>
       <c r="T4">
-        <v>0.02730954351056373</v>
+        <v>0.1567490778622265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.288371</v>
+      </c>
+      <c r="H5">
+        <v>0.865113</v>
+      </c>
+      <c r="I5">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J5">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1278803333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.383641</v>
+      </c>
+      <c r="O5">
+        <v>0.009974564977605908</v>
+      </c>
+      <c r="P5">
+        <v>0.009974564977605908</v>
+      </c>
+      <c r="Q5">
+        <v>0.03687697960366667</v>
+      </c>
+      <c r="R5">
+        <v>0.331892816433</v>
+      </c>
+      <c r="S5">
+        <v>0.0003045288174841522</v>
+      </c>
+      <c r="T5">
+        <v>0.0003045288174841522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.28248092494081</v>
-      </c>
-      <c r="H5">
-        <v>0.28248092494081</v>
-      </c>
-      <c r="I5">
-        <v>0.03221833004943613</v>
-      </c>
-      <c r="J5">
-        <v>0.03221833004943613</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.80520904268742</v>
-      </c>
-      <c r="N5">
-        <v>1.80520904268742</v>
-      </c>
-      <c r="O5">
-        <v>0.1523600550165171</v>
-      </c>
-      <c r="P5">
-        <v>0.1523600550165171</v>
-      </c>
-      <c r="Q5">
-        <v>0.5099371200898566</v>
-      </c>
-      <c r="R5">
-        <v>0.5099371200898566</v>
-      </c>
-      <c r="S5">
-        <v>0.004908786538872396</v>
-      </c>
-      <c r="T5">
-        <v>0.004908786538872396</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.288371</v>
+      </c>
+      <c r="H6">
+        <v>0.865113</v>
+      </c>
+      <c r="I6">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J6">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10.61985133333333</v>
+      </c>
+      <c r="N6">
+        <v>31.859554</v>
+      </c>
+      <c r="O6">
+        <v>0.8283400145723324</v>
+      </c>
+      <c r="P6">
+        <v>0.8283400145723324</v>
+      </c>
+      <c r="Q6">
+        <v>3.062457148844667</v>
+      </c>
+      <c r="R6">
+        <v>27.562114339602</v>
+      </c>
+      <c r="S6">
+        <v>0.02528966483038176</v>
+      </c>
+      <c r="T6">
+        <v>0.02528966483038176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.288371</v>
+      </c>
+      <c r="H7">
+        <v>0.865113</v>
+      </c>
+      <c r="I7">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="J7">
+        <v>0.03053053623570109</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.072911</v>
+      </c>
+      <c r="N7">
+        <v>6.218733</v>
+      </c>
+      <c r="O7">
+        <v>0.1616854204500617</v>
+      </c>
+      <c r="P7">
+        <v>0.1616854204500617</v>
+      </c>
+      <c r="Q7">
+        <v>0.597767417981</v>
+      </c>
+      <c r="R7">
+        <v>5.379906761829</v>
+      </c>
+      <c r="S7">
+        <v>0.004936342587835174</v>
+      </c>
+      <c r="T7">
+        <v>0.004936342587835174</v>
       </c>
     </row>
   </sheetData>
